--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lpl-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lpl-Sdc1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.863113</v>
+        <v>81.295946</v>
       </c>
       <c r="H2">
-        <v>49.726226</v>
+        <v>162.591892</v>
       </c>
       <c r="I2">
-        <v>0.0840270138440103</v>
+        <v>0.2087576831039754</v>
       </c>
       <c r="J2">
-        <v>0.05854365446293047</v>
+        <v>0.1513633345147276</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N2">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O2">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P2">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q2">
-        <v>78.39245049070603</v>
+        <v>141.419826191328</v>
       </c>
       <c r="R2">
-        <v>313.5698019628241</v>
+        <v>565.6793047653121</v>
       </c>
       <c r="S2">
-        <v>0.01040863639262003</v>
+        <v>0.01350314426205684</v>
       </c>
       <c r="T2">
-        <v>0.005926113635340664</v>
+        <v>0.007664610925325161</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.863113</v>
+        <v>81.295946</v>
       </c>
       <c r="H3">
-        <v>49.726226</v>
+        <v>162.591892</v>
       </c>
       <c r="I3">
-        <v>0.0840270138440103</v>
+        <v>0.2087576831039754</v>
       </c>
       <c r="J3">
-        <v>0.05854365446293047</v>
+        <v>0.1513633345147276</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>26.240334</v>
       </c>
       <c r="O3">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P3">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q3">
-        <v>217.472129799914</v>
+        <v>711.0775919619881</v>
       </c>
       <c r="R3">
-        <v>1304.832778799484</v>
+        <v>4266.465551771928</v>
       </c>
       <c r="S3">
-        <v>0.02887508057787191</v>
+        <v>0.06789559543644456</v>
       </c>
       <c r="T3">
-        <v>0.02465985969911677</v>
+        <v>0.0578080163180115</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.863113</v>
+        <v>81.295946</v>
       </c>
       <c r="H4">
-        <v>49.726226</v>
+        <v>162.591892</v>
       </c>
       <c r="I4">
-        <v>0.0840270138440103</v>
+        <v>0.2087576831039754</v>
       </c>
       <c r="J4">
-        <v>0.05854365446293047</v>
+        <v>0.1513633345147276</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N4">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O4">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P4">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q4">
-        <v>29.555304548473</v>
+        <v>193.7602157234267</v>
       </c>
       <c r="R4">
-        <v>177.331827290838</v>
+        <v>1162.56129434056</v>
       </c>
       <c r="S4">
-        <v>0.003924235262357004</v>
+        <v>0.01850074502015703</v>
       </c>
       <c r="T4">
-        <v>0.003351370422502295</v>
+        <v>0.01575199927396959</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.863113</v>
+        <v>81.295946</v>
       </c>
       <c r="H5">
-        <v>49.726226</v>
+        <v>162.591892</v>
       </c>
       <c r="I5">
-        <v>0.0840270138440103</v>
+        <v>0.2087576831039754</v>
       </c>
       <c r="J5">
-        <v>0.05854365446293047</v>
+        <v>0.1513633345147276</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N5">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O5">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P5">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q5">
-        <v>271.284334927221</v>
+        <v>831.989255687653</v>
       </c>
       <c r="R5">
-        <v>1085.137339708884</v>
+        <v>3327.957022750612</v>
       </c>
       <c r="S5">
-        <v>0.03602005019100611</v>
+        <v>0.07944056534783508</v>
       </c>
       <c r="T5">
-        <v>0.02050786505847432</v>
+        <v>0.04509179590045183</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.863113</v>
+        <v>81.295946</v>
       </c>
       <c r="H6">
-        <v>49.726226</v>
+        <v>162.591892</v>
       </c>
       <c r="I6">
-        <v>0.0840270138440103</v>
+        <v>0.2087576831039754</v>
       </c>
       <c r="J6">
-        <v>0.05854365446293047</v>
+        <v>0.1513633345147276</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N6">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O6">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P6">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q6">
-        <v>18.71850126711033</v>
+        <v>63.171096135246</v>
       </c>
       <c r="R6">
-        <v>112.311007602662</v>
+        <v>379.026576811476</v>
       </c>
       <c r="S6">
-        <v>0.00248536781647421</v>
+        <v>0.006031745670175313</v>
       </c>
       <c r="T6">
-        <v>0.002122550670972749</v>
+        <v>0.005135579854424927</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.863113</v>
+        <v>81.295946</v>
       </c>
       <c r="H7">
-        <v>49.726226</v>
+        <v>162.591892</v>
       </c>
       <c r="I7">
-        <v>0.0840270138440103</v>
+        <v>0.2087576831039754</v>
       </c>
       <c r="J7">
-        <v>0.05854365446293047</v>
+        <v>0.1513633345147276</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N7">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O7">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P7">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q7">
-        <v>17.425163567372</v>
+        <v>244.922816688526</v>
       </c>
       <c r="R7">
-        <v>104.550981404232</v>
+        <v>1469.536900131156</v>
       </c>
       <c r="S7">
-        <v>0.002313643603681043</v>
+        <v>0.02338588736730658</v>
       </c>
       <c r="T7">
-        <v>0.001975894976523674</v>
+        <v>0.01991133224254453</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>95.837189</v>
       </c>
       <c r="I8">
-        <v>0.1079633217673913</v>
+        <v>0.08203258389144356</v>
       </c>
       <c r="J8">
-        <v>0.1128309893759997</v>
+        <v>0.08921869546581183</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N8">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O8">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P8">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q8">
-        <v>100.7236717012727</v>
+        <v>55.571769064784</v>
       </c>
       <c r="R8">
-        <v>604.3420302076361</v>
+        <v>333.430614388704</v>
       </c>
       <c r="S8">
-        <v>0.01337368673010768</v>
+        <v>0.005306141541740211</v>
       </c>
       <c r="T8">
-        <v>0.01142137898230242</v>
+        <v>0.004517782263471369</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>95.837189</v>
       </c>
       <c r="I9">
-        <v>0.1079633217673913</v>
+        <v>0.08203258389144356</v>
       </c>
       <c r="J9">
-        <v>0.1128309893759997</v>
+        <v>0.08921869546581183</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>26.240334</v>
       </c>
       <c r="O9">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P9">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q9">
         <v>279.4222054423473</v>
@@ -1013,10 +1013,10 @@
         <v>2514.799848981126</v>
       </c>
       <c r="S9">
-        <v>0.03710056412662055</v>
+        <v>0.02667998152540134</v>
       </c>
       <c r="T9">
-        <v>0.04752686509323543</v>
+        <v>0.03407401019470487</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>95.837189</v>
       </c>
       <c r="I10">
-        <v>0.1079633217673913</v>
+        <v>0.08203258389144356</v>
       </c>
       <c r="J10">
-        <v>0.1128309893759997</v>
+        <v>0.08921869546581183</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N10">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O10">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P10">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q10">
-        <v>37.97455971508966</v>
+        <v>76.13923911600222</v>
       </c>
       <c r="R10">
-        <v>341.771037435807</v>
+        <v>685.25315204402</v>
       </c>
       <c r="S10">
-        <v>0.005042110327844207</v>
+        <v>0.007269978739725421</v>
       </c>
       <c r="T10">
-        <v>0.006459085002557046</v>
+        <v>0.009284763913979709</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>95.837189</v>
       </c>
       <c r="I11">
-        <v>0.1079633217673913</v>
+        <v>0.08203258389144356</v>
       </c>
       <c r="J11">
-        <v>0.1128309893759997</v>
+        <v>0.08921869546581183</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N11">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O11">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P11">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q11">
-        <v>348.563594043371</v>
+        <v>326.9351690399048</v>
       </c>
       <c r="R11">
-        <v>2091.381564260226</v>
+        <v>1961.611014239429</v>
       </c>
       <c r="S11">
-        <v>0.04628088148019301</v>
+        <v>0.03121664670916194</v>
       </c>
       <c r="T11">
-        <v>0.03952473971371765</v>
+        <v>0.02657863755014934</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>95.837189</v>
       </c>
       <c r="I12">
-        <v>0.1079633217673913</v>
+        <v>0.08203258389144356</v>
       </c>
       <c r="J12">
-        <v>0.1128309893759997</v>
+        <v>0.08921869546581183</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N12">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O12">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P12">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q12">
-        <v>24.05073657688255</v>
+        <v>24.823461183213</v>
       </c>
       <c r="R12">
-        <v>216.456629191943</v>
+        <v>223.411150648917</v>
       </c>
       <c r="S12">
-        <v>0.003193360718238248</v>
+        <v>0.002370210644913434</v>
       </c>
       <c r="T12">
-        <v>0.004090784806715316</v>
+        <v>0.003027085367412504</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>95.837189</v>
       </c>
       <c r="I13">
-        <v>0.1079633217673913</v>
+        <v>0.08203258389144356</v>
       </c>
       <c r="J13">
-        <v>0.1128309893759997</v>
+        <v>0.08921869546581183</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N13">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O13">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P13">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q13">
-        <v>22.38897296250533</v>
+        <v>96.24389008438635</v>
       </c>
       <c r="R13">
-        <v>201.500756662548</v>
+        <v>866.1950107594771</v>
       </c>
       <c r="S13">
-        <v>0.002972718384387629</v>
+        <v>0.00918962473050121</v>
       </c>
       <c r="T13">
-        <v>0.003808135777471829</v>
+        <v>0.01173641617609403</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>95.81209200000001</v>
+        <v>52.98516133333333</v>
       </c>
       <c r="H14">
-        <v>287.436276</v>
+        <v>158.955484</v>
       </c>
       <c r="I14">
-        <v>0.3238051478472381</v>
+        <v>0.1360591771554883</v>
       </c>
       <c r="J14">
-        <v>0.3384043265671421</v>
+        <v>0.1479780559884402</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N14">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O14">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P14">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q14">
-        <v>302.0918852165041</v>
+        <v>92.171291130304</v>
       </c>
       <c r="R14">
-        <v>1812.551311299025</v>
+        <v>553.0277467818239</v>
       </c>
       <c r="S14">
-        <v>0.04011055364001515</v>
+        <v>0.008800762060538122</v>
       </c>
       <c r="T14">
-        <v>0.03425516415613649</v>
+        <v>0.007493190000561336</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>95.81209200000001</v>
+        <v>52.98516133333333</v>
       </c>
       <c r="H15">
-        <v>287.436276</v>
+        <v>158.955484</v>
       </c>
       <c r="I15">
-        <v>0.3238051478472381</v>
+        <v>0.1360591771554883</v>
       </c>
       <c r="J15">
-        <v>0.3384043265671421</v>
+        <v>0.1479780559884402</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>26.240334</v>
       </c>
       <c r="O15">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P15">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q15">
-        <v>838.0470984395762</v>
+        <v>463.4494434768507</v>
       </c>
       <c r="R15">
-        <v>7542.423885956185</v>
+        <v>4171.044991291656</v>
       </c>
       <c r="S15">
-        <v>0.1112725456717538</v>
+        <v>0.04425139573408426</v>
       </c>
       <c r="T15">
-        <v>0.1425432575276596</v>
+        <v>0.05651512569218037</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>95.81209200000001</v>
+        <v>52.98516133333333</v>
       </c>
       <c r="H16">
-        <v>287.436276</v>
+        <v>158.955484</v>
       </c>
       <c r="I16">
-        <v>0.3238051478472381</v>
+        <v>0.1360591771554883</v>
       </c>
       <c r="J16">
-        <v>0.3384043265671421</v>
+        <v>0.1479780559884402</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N16">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O16">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P16">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q16">
-        <v>113.893845814332</v>
+        <v>126.2844802874578</v>
       </c>
       <c r="R16">
-        <v>1025.044612328988</v>
+        <v>1136.56032258712</v>
       </c>
       <c r="S16">
-        <v>0.01512236983303713</v>
+        <v>0.01205798084543949</v>
       </c>
       <c r="T16">
-        <v>0.01937218066258651</v>
+        <v>0.01539970190248776</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>95.81209200000001</v>
+        <v>52.98516133333333</v>
       </c>
       <c r="H17">
-        <v>287.436276</v>
+        <v>158.955484</v>
       </c>
       <c r="I17">
-        <v>0.3238051478472381</v>
+        <v>0.1360591771554883</v>
       </c>
       <c r="J17">
-        <v>0.3384043265671421</v>
+        <v>0.1479780559884402</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N17">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O17">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P17">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q17">
-        <v>1045.416945826764</v>
+        <v>542.2544063908206</v>
       </c>
       <c r="R17">
-        <v>6272.501674960585</v>
+        <v>3253.526438344923</v>
       </c>
       <c r="S17">
-        <v>0.1388062855502163</v>
+        <v>0.05177590493093285</v>
       </c>
       <c r="T17">
-        <v>0.1185431679677115</v>
+        <v>0.04408330669886992</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>95.81209200000001</v>
+        <v>52.98516133333333</v>
       </c>
       <c r="H18">
-        <v>287.436276</v>
+        <v>158.955484</v>
       </c>
       <c r="I18">
-        <v>0.3238051478472381</v>
+        <v>0.1360591771554883</v>
       </c>
       <c r="J18">
-        <v>0.3384043265671421</v>
+        <v>0.1479780559884402</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N18">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O18">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P18">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q18">
-        <v>72.133315144668</v>
+        <v>41.172172599228</v>
       </c>
       <c r="R18">
-        <v>649.199836302012</v>
+        <v>370.549553393052</v>
       </c>
       <c r="S18">
-        <v>0.00957757340707361</v>
+        <v>0.003931229454613563</v>
       </c>
       <c r="T18">
-        <v>0.01226914064392717</v>
+        <v>0.005020721336957957</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>95.81209200000001</v>
+        <v>52.98516133333333</v>
       </c>
       <c r="H19">
-        <v>287.436276</v>
+        <v>158.955484</v>
       </c>
       <c r="I19">
-        <v>0.3238051478472381</v>
+        <v>0.1360591771554883</v>
       </c>
       <c r="J19">
-        <v>0.3384043265671421</v>
+        <v>0.1479780559884402</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N19">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O19">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P19">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q19">
-        <v>67.14932980564801</v>
+        <v>159.6300380889347</v>
       </c>
       <c r="R19">
-        <v>604.3439682508321</v>
+        <v>1436.670342800412</v>
       </c>
       <c r="S19">
-        <v>0.008915819745142115</v>
+        <v>0.01524190412987999</v>
       </c>
       <c r="T19">
-        <v>0.01142141560912087</v>
+        <v>0.01946601035738283</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.4326165</v>
+        <v>12.8032175</v>
       </c>
       <c r="H20">
-        <v>26.865233</v>
+        <v>25.606435</v>
       </c>
       <c r="I20">
-        <v>0.04539667468859515</v>
+        <v>0.03287703942305158</v>
       </c>
       <c r="J20">
-        <v>0.03162896210579336</v>
+        <v>0.02383806067423477</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N20">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O20">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P20">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q20">
-        <v>42.35252938507301</v>
+        <v>22.27206746004</v>
       </c>
       <c r="R20">
-        <v>169.410117540292</v>
+        <v>89.08826984016</v>
       </c>
       <c r="S20">
-        <v>0.005623399650317649</v>
+        <v>0.002126596729940146</v>
       </c>
       <c r="T20">
-        <v>0.003201659092284702</v>
+        <v>0.001207091934569705</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.4326165</v>
+        <v>12.8032175</v>
       </c>
       <c r="H21">
-        <v>26.865233</v>
+        <v>25.606435</v>
       </c>
       <c r="I21">
-        <v>0.04539667468859515</v>
+        <v>0.03287703942305158</v>
       </c>
       <c r="J21">
-        <v>0.03162896210579336</v>
+        <v>0.02383806067423477</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>26.240334</v>
       </c>
       <c r="O21">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P21">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q21">
-        <v>117.492114484637</v>
+        <v>111.986901158215</v>
       </c>
       <c r="R21">
-        <v>704.952686907822</v>
+        <v>671.9214069492899</v>
       </c>
       <c r="S21">
-        <v>0.01560013357173544</v>
+        <v>0.01069280964717241</v>
       </c>
       <c r="T21">
-        <v>0.01332280629067007</v>
+        <v>0.009104126867077116</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.4326165</v>
+        <v>12.8032175</v>
       </c>
       <c r="H22">
-        <v>26.865233</v>
+        <v>25.606435</v>
       </c>
       <c r="I22">
-        <v>0.04539667468859515</v>
+        <v>0.03287703942305158</v>
       </c>
       <c r="J22">
-        <v>0.03162896210579336</v>
+        <v>0.02383806067423477</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N22">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O22">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P22">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q22">
-        <v>15.9676333184965</v>
+        <v>30.51510323471666</v>
       </c>
       <c r="R22">
-        <v>95.805799910979</v>
+        <v>183.0906194083</v>
       </c>
       <c r="S22">
-        <v>0.002120118560174606</v>
+        <v>0.002913663891740829</v>
       </c>
       <c r="T22">
-        <v>0.001810620964274115</v>
+        <v>0.002480766664114773</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.4326165</v>
+        <v>12.8032175</v>
       </c>
       <c r="H23">
-        <v>26.865233</v>
+        <v>25.606435</v>
       </c>
       <c r="I23">
-        <v>0.04539667468859515</v>
+        <v>0.03287703942305158</v>
       </c>
       <c r="J23">
-        <v>0.03162896210579336</v>
+        <v>0.02383806067423477</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N23">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O23">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P23">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q23">
-        <v>146.5648502476305</v>
+        <v>131.0291585540087</v>
       </c>
       <c r="R23">
-        <v>586.2594009905221</v>
+        <v>524.1166342160349</v>
       </c>
       <c r="S23">
-        <v>0.01946029527865384</v>
+        <v>0.01251101545052807</v>
       </c>
       <c r="T23">
-        <v>0.01107963779773818</v>
+        <v>0.007101461989003646</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.4326165</v>
+        <v>12.8032175</v>
       </c>
       <c r="H24">
-        <v>26.865233</v>
+        <v>25.606435</v>
       </c>
       <c r="I24">
-        <v>0.04539667468859515</v>
+        <v>0.03287703942305158</v>
       </c>
       <c r="J24">
-        <v>0.03162896210579336</v>
+        <v>0.02383806067423477</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N24">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O24">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P24">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q24">
-        <v>10.11291100096183</v>
+        <v>9.948752961592501</v>
       </c>
       <c r="R24">
-        <v>60.677466005771</v>
+        <v>59.692517769555</v>
       </c>
       <c r="S24">
-        <v>0.001342751920893431</v>
+        <v>0.0009499336131710404</v>
       </c>
       <c r="T24">
-        <v>0.001146735292760589</v>
+        <v>0.0008087973521437425</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>13.4326165</v>
+        <v>12.8032175</v>
       </c>
       <c r="H25">
-        <v>26.865233</v>
+        <v>25.606435</v>
       </c>
       <c r="I25">
-        <v>0.04539667468859515</v>
+        <v>0.03287703942305158</v>
       </c>
       <c r="J25">
-        <v>0.03162896210579336</v>
+        <v>0.02383806067423477</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N25">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O25">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P25">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q25">
-        <v>9.414168678326</v>
+        <v>38.5726502619925</v>
       </c>
       <c r="R25">
-        <v>56.485012069956</v>
+        <v>231.435901571955</v>
       </c>
       <c r="S25">
-        <v>0.001249975706820197</v>
+        <v>0.003683020090499082</v>
       </c>
       <c r="T25">
-        <v>0.001067502668065701</v>
+        <v>0.003135815867325787</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>41.14755033333334</v>
+        <v>30.251696</v>
       </c>
       <c r="H26">
-        <v>123.442651</v>
+        <v>90.755088</v>
       </c>
       <c r="I26">
-        <v>0.1390616606016355</v>
+        <v>0.07768252019511281</v>
       </c>
       <c r="J26">
-        <v>0.1453314375020561</v>
+        <v>0.08448756315510209</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N26">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O26">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P26">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q26">
-        <v>129.7366625940874</v>
+        <v>52.624882307328</v>
       </c>
       <c r="R26">
-        <v>778.4199755645241</v>
+        <v>315.749293843968</v>
       </c>
       <c r="S26">
-        <v>0.01722591575184883</v>
+        <v>0.005024764891227021</v>
       </c>
       <c r="T26">
-        <v>0.01471125472650385</v>
+        <v>0.004278211111619554</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>41.14755033333334</v>
+        <v>30.251696</v>
       </c>
       <c r="H27">
-        <v>123.442651</v>
+        <v>90.755088</v>
       </c>
       <c r="I27">
-        <v>0.1390616606016355</v>
+        <v>0.07768252019511281</v>
       </c>
       <c r="J27">
-        <v>0.1453314375020561</v>
+        <v>0.08448756315510209</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>26.240334</v>
       </c>
       <c r="O27">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P27">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q27">
-        <v>359.9084880094927</v>
+        <v>264.604869035488</v>
       </c>
       <c r="R27">
-        <v>3239.176392085434</v>
+        <v>2381.443821319392</v>
       </c>
       <c r="S27">
-        <v>0.04778721117733891</v>
+        <v>0.02526518250839111</v>
       </c>
       <c r="T27">
-        <v>0.06121676023728476</v>
+        <v>0.03226711703463399</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>41.14755033333334</v>
+        <v>30.251696</v>
       </c>
       <c r="H28">
-        <v>123.442651</v>
+        <v>90.755088</v>
       </c>
       <c r="I28">
-        <v>0.1390616606016355</v>
+        <v>0.07768252019511281</v>
       </c>
       <c r="J28">
-        <v>0.1453314375020561</v>
+        <v>0.08448756315510209</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N28">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O28">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P28">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q28">
-        <v>48.91295717979033</v>
+        <v>72.10169056842666</v>
       </c>
       <c r="R28">
-        <v>440.216614618113</v>
+        <v>648.9152151158399</v>
       </c>
       <c r="S28">
-        <v>0.006494467043514477</v>
+        <v>0.006884462776573191</v>
       </c>
       <c r="T28">
-        <v>0.008319594763468946</v>
+        <v>0.008792406944160822</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>41.14755033333334</v>
+        <v>30.251696</v>
       </c>
       <c r="H29">
-        <v>123.442651</v>
+        <v>90.755088</v>
       </c>
       <c r="I29">
-        <v>0.1390616606016355</v>
+        <v>0.07768252019511281</v>
       </c>
       <c r="J29">
-        <v>0.1453314375020561</v>
+        <v>0.08448756315510209</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N29">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O29">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P29">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q29">
-        <v>448.965735950389</v>
+        <v>309.598292125528</v>
       </c>
       <c r="R29">
-        <v>2693.794415702334</v>
+        <v>1857.589752753168</v>
       </c>
       <c r="S29">
-        <v>0.05961187676875446</v>
+        <v>0.02956127520763263</v>
       </c>
       <c r="T29">
-        <v>0.05090965940524704</v>
+        <v>0.02516921265067476</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>41.14755033333334</v>
+        <v>30.251696</v>
       </c>
       <c r="H30">
-        <v>123.442651</v>
+        <v>90.755088</v>
       </c>
       <c r="I30">
-        <v>0.1390616606016355</v>
+        <v>0.07768252019511281</v>
       </c>
       <c r="J30">
-        <v>0.1453314375020561</v>
+        <v>0.08448756315510209</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N30">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O30">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P30">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q30">
-        <v>30.97844075490411</v>
+        <v>23.507110628496</v>
       </c>
       <c r="R30">
-        <v>278.805966794137</v>
+        <v>211.563995656464</v>
       </c>
       <c r="S30">
-        <v>0.004113193602314374</v>
+        <v>0.0022445219637823</v>
       </c>
       <c r="T30">
-        <v>0.005269116576566756</v>
+        <v>0.002866563614496604</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>41.14755033333334</v>
+        <v>30.251696</v>
       </c>
       <c r="H31">
-        <v>123.442651</v>
+        <v>90.755088</v>
       </c>
       <c r="I31">
-        <v>0.1390616606016355</v>
+        <v>0.07768252019511281</v>
       </c>
       <c r="J31">
-        <v>0.1453314375020561</v>
+        <v>0.08448756315510209</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N31">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O31">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P31">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q31">
-        <v>28.83801376581467</v>
+        <v>91.14022234177601</v>
       </c>
       <c r="R31">
-        <v>259.542123892332</v>
+        <v>820.2620010759841</v>
       </c>
       <c r="S31">
-        <v>0.003828996257864428</v>
+        <v>0.008702312847506551</v>
       </c>
       <c r="T31">
-        <v>0.004905051792984754</v>
+        <v>0.01111405179951634</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>88.69318133333336</v>
+        <v>180.145574</v>
       </c>
       <c r="H32">
-        <v>266.0795440000001</v>
+        <v>540.436722</v>
       </c>
       <c r="I32">
-        <v>0.2997461812511296</v>
+        <v>0.4625909962309284</v>
       </c>
       <c r="J32">
-        <v>0.3132606299860783</v>
+        <v>0.5031142902016837</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.152962</v>
+        <v>1.739568</v>
       </c>
       <c r="N32">
-        <v>6.305924000000001</v>
+        <v>3.479136</v>
       </c>
       <c r="O32">
-        <v>0.1238725014308239</v>
+        <v>0.06468334032683895</v>
       </c>
       <c r="P32">
-        <v>0.1012255502275323</v>
+        <v>0.05063717015681495</v>
       </c>
       <c r="Q32">
-        <v>279.6462304031094</v>
+        <v>313.375475872032</v>
       </c>
       <c r="R32">
-        <v>1677.877382418657</v>
+        <v>1880.252855232192</v>
       </c>
       <c r="S32">
-        <v>0.03713030926591455</v>
+        <v>0.02992193084133661</v>
       </c>
       <c r="T32">
-        <v>0.03170997963496418</v>
+        <v>0.02547628392126784</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>88.69318133333336</v>
+        <v>180.145574</v>
       </c>
       <c r="H33">
-        <v>266.0795440000001</v>
+        <v>540.436722</v>
       </c>
       <c r="I33">
-        <v>0.2997461812511296</v>
+        <v>0.4625909962309284</v>
       </c>
       <c r="J33">
-        <v>0.3132606299860783</v>
+        <v>0.5031142902016837</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>26.240334</v>
       </c>
       <c r="O33">
-        <v>0.3436404467672299</v>
+        <v>0.3252363909529882</v>
       </c>
       <c r="P33">
-        <v>0.4212217348804431</v>
+        <v>0.3819155841363076</v>
       </c>
       <c r="Q33">
-        <v>775.7795672364109</v>
+        <v>1575.693343460572</v>
       </c>
       <c r="R33">
-        <v>6982.016105127697</v>
+        <v>14181.24009114515</v>
       </c>
       <c r="S33">
-        <v>0.1030049116419093</v>
+        <v>0.1504514261014945</v>
       </c>
       <c r="T33">
-        <v>0.1319521860324764</v>
+        <v>0.1921471880296998</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>88.69318133333336</v>
+        <v>180.145574</v>
       </c>
       <c r="H34">
-        <v>266.0795440000001</v>
+        <v>540.436722</v>
       </c>
       <c r="I34">
-        <v>0.2997461812511296</v>
+        <v>0.4625909962309284</v>
       </c>
       <c r="J34">
-        <v>0.3132606299860783</v>
+        <v>0.5031142902016837</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>1.188721</v>
+        <v>2.383393333333333</v>
       </c>
       <c r="N34">
-        <v>3.566163</v>
+        <v>7.15018</v>
       </c>
       <c r="O34">
-        <v>0.04670206738087879</v>
+        <v>0.08862306165250171</v>
       </c>
       <c r="P34">
-        <v>0.05724566485039578</v>
+        <v>0.1040674700017059</v>
       </c>
       <c r="Q34">
-        <v>105.4314472077414</v>
+        <v>429.3577601011067</v>
       </c>
       <c r="R34">
-        <v>948.8830248696722</v>
+        <v>3864.21984090996</v>
       </c>
       <c r="S34">
-        <v>0.01399876635395136</v>
+        <v>0.04099623037886575</v>
       </c>
       <c r="T34">
-        <v>0.01793281303500688</v>
+        <v>0.05235783130299329</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>88.69318133333336</v>
+        <v>180.145574</v>
       </c>
       <c r="H35">
-        <v>266.0795440000001</v>
+        <v>540.436722</v>
       </c>
       <c r="I35">
-        <v>0.2997461812511296</v>
+        <v>0.4625909962309284</v>
       </c>
       <c r="J35">
-        <v>0.3132606299860783</v>
+        <v>0.5031142902016837</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>10.911117</v>
+        <v>10.2340805</v>
       </c>
       <c r="N35">
-        <v>21.822234</v>
+        <v>20.468161</v>
       </c>
       <c r="O35">
-        <v>0.428672263159019</v>
+        <v>0.3805396005869078</v>
       </c>
       <c r="P35">
-        <v>0.3503003911629703</v>
+        <v>0.2979043507796429</v>
       </c>
       <c r="Q35">
-        <v>967.7416786302164</v>
+        <v>1843.624306034707</v>
       </c>
       <c r="R35">
-        <v>5806.450071781298</v>
+        <v>11061.74583620824</v>
       </c>
       <c r="S35">
-        <v>0.1284928738901952</v>
+        <v>0.1760341929408173</v>
       </c>
       <c r="T35">
-        <v>0.1097353212200817</v>
+        <v>0.1498799359904935</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>88.69318133333336</v>
+        <v>180.145574</v>
       </c>
       <c r="H36">
-        <v>266.0795440000001</v>
+        <v>540.436722</v>
       </c>
       <c r="I36">
-        <v>0.2997461812511296</v>
+        <v>0.4625909962309284</v>
       </c>
       <c r="J36">
-        <v>0.3132606299860783</v>
+        <v>0.5031142902016837</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.7528623333333333</v>
+        <v>0.777051</v>
       </c>
       <c r="N36">
-        <v>2.258587</v>
+        <v>2.331153</v>
       </c>
       <c r="O36">
-        <v>0.02957819994755621</v>
+        <v>0.02889352660218545</v>
       </c>
       <c r="P36">
-        <v>0.03625586223553462</v>
+        <v>0.0339288234557573</v>
       </c>
       <c r="Q36">
-        <v>66.77375544936979</v>
+        <v>139.982298422274</v>
       </c>
       <c r="R36">
-        <v>600.9637990443281</v>
+        <v>1259.840685800466</v>
       </c>
       <c r="S36">
-        <v>0.008865952482562335</v>
+        <v>0.0133658852555298</v>
       </c>
       <c r="T36">
-        <v>0.01135753424459204</v>
+        <v>0.01707007593032157</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>88.69318133333336</v>
+        <v>180.145574</v>
       </c>
       <c r="H37">
-        <v>266.0795440000001</v>
+        <v>540.436722</v>
       </c>
       <c r="I37">
-        <v>0.2997461812511296</v>
+        <v>0.4625909962309284</v>
       </c>
       <c r="J37">
-        <v>0.3132606299860783</v>
+        <v>0.5031142902016837</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.700844</v>
+        <v>3.012731</v>
       </c>
       <c r="N37">
-        <v>2.102532</v>
+        <v>9.038193000000001</v>
       </c>
       <c r="O37">
-        <v>0.02753452131449232</v>
+        <v>0.1120240798785778</v>
       </c>
       <c r="P37">
-        <v>0.03375079664312381</v>
+        <v>0.1315466014697712</v>
       </c>
       <c r="Q37">
-        <v>62.16008397837869</v>
+        <v>542.7301553025941</v>
       </c>
       <c r="R37">
-        <v>559.4407558054081</v>
+        <v>4884.571397723347</v>
       </c>
       <c r="S37">
-        <v>0.008253367616596907</v>
+        <v>0.05182133071288441</v>
       </c>
       <c r="T37">
-        <v>0.01057279581895698</v>
+        <v>0.0661829750269077</v>
       </c>
     </row>
   </sheetData>
